--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="12615" tabRatio="710"/>
+    <workbookView windowWidth="24525" windowHeight="12690" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="itemcommon" sheetId="14" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>*dark_config</t>
   </si>
@@ -237,14 +237,179 @@
       <t>(int)</t>
     </r>
   </si>
+  <si>
+    <t>ITEM_NAME_10001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_10001</t>
+  </si>
+  <si>
+    <t>[{"money":"1"}]</t>
+  </si>
+  <si>
+    <t>胡子</t>
+  </si>
+  <si>
+    <t>相片胡子道具</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_10002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_10002</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>相片鼻子道具</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_11001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_11001</t>
+  </si>
+  <si>
+    <t>普通相框</t>
+  </si>
+  <si>
+    <t>相片普通相框</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_11002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_11002</t>
+  </si>
+  <si>
+    <t>爱心相框</t>
+  </si>
+  <si>
+    <t>相片爱心相框</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_12001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_12001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_12001</t>
+  </si>
+  <si>
+    <t>星星特效</t>
+  </si>
+  <si>
+    <t>相片星星特效</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_12002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_12002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_12002</t>
+  </si>
+  <si>
+    <t>骷髅特效</t>
+  </si>
+  <si>
+    <t>相片骷髅特效</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_20001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_20001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_20001</t>
+  </si>
+  <si>
+    <t>马里奥</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_20002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_20002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_20002</t>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_21001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_21001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_21001</t>
+  </si>
+  <si>
+    <t>寒冰脚印</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_21002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_21002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_21002</t>
+  </si>
+  <si>
+    <t>火焰脚印</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_22001</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_22001</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_22001</t>
+  </si>
+  <si>
+    <t>寒冰护罩</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_22002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_22002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_22002</t>
+  </si>
+  <si>
+    <t>火焰护罩</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -274,8 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +455,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,67 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -372,6 +530,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -382,7 +547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,14 +555,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +576,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -429,7 +594,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,13 +603,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,49 +771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,103 +793,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,17 +857,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,15 +907,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -737,10 +923,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,137 +935,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +1074,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1306,23 +1501,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="4" width="27.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
     <col min="7" max="8" width="18.375" style="2" customWidth="1"/>
     <col min="9" max="10" width="15" style="2" customWidth="1"/>
     <col min="11" max="12" width="17.25" style="2" customWidth="1"/>
@@ -1465,6 +1661,534 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:14">
+      <c r="A6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:14">
+      <c r="A7" s="3">
+        <v>11001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:14">
+      <c r="A8" s="3">
+        <v>11002</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:14">
+      <c r="A9" s="3">
+        <v>12001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:14">
+      <c r="A10" s="3">
+        <v>12002</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:14">
+      <c r="A11" s="3">
+        <v>20001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:14">
+      <c r="A12" s="3">
+        <v>20002</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:14">
+      <c r="A13" s="3">
+        <v>21001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:14">
+      <c r="A14" s="3">
+        <v>21002</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:14">
+      <c r="A15" s="3">
+        <v>22001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:14">
+      <c r="A16" s="3">
+        <v>22002</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12690" tabRatio="710"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="itemcommon" sheetId="14" r:id="rId1"/>
@@ -247,7 +247,7 @@
     <t>ITEM_ICON_10001</t>
   </si>
   <si>
-    <t>[{"money":"1"}]</t>
+    <t>[{"money":"100"}]</t>
   </si>
   <si>
     <t>胡子</t>
@@ -280,10 +280,10 @@
     <t>ITEM_ICON_11001</t>
   </si>
   <si>
-    <t>普通相框</t>
-  </si>
-  <si>
-    <t>相片普通相框</t>
+    <t>白框</t>
+  </si>
+  <si>
+    <t>相片白框</t>
   </si>
   <si>
     <t>ITEM_NAME_11002</t>
@@ -409,9 +409,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -433,7 +433,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,34 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -491,34 +559,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,13 +575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -545,44 +583,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -594,7 +594,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,7 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,37 +621,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,139 +729,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +813,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -833,17 +857,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,9 +877,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,183 +909,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,12 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1504,26 +1492,21 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="12" width="17.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
+    <col min="6" max="8" width="16.125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="13.25" style="2" customWidth="1"/>
+    <col min="12" max="14" width="16.125" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1665,43 +1648,43 @@
       <c r="A5" s="3">
         <v>10001</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1709,43 +1692,43 @@
       <c r="A6" s="3">
         <v>10002</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1753,43 +1736,43 @@
       <c r="A7" s="3">
         <v>11001</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1797,43 +1780,43 @@
       <c r="A8" s="3">
         <v>11002</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1841,43 +1824,43 @@
       <c r="A9" s="3">
         <v>12001</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1885,43 +1868,43 @@
       <c r="A10" s="3">
         <v>12002</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1929,43 +1912,43 @@
       <c r="A11" s="3">
         <v>20001</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1973,43 +1956,43 @@
       <c r="A12" s="3">
         <v>20002</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2017,43 +2000,43 @@
       <c r="A13" s="3">
         <v>21001</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2061,43 +2044,43 @@
       <c r="A14" s="3">
         <v>21002</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2105,43 +2088,43 @@
       <c r="A15" s="3">
         <v>22001</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2149,43 +2132,43 @@
       <c r="A16" s="3">
         <v>22002</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>*dark_config</t>
   </si>
@@ -247,24 +247,27 @@
     <t>ITEM_ICON_10001</t>
   </si>
   <si>
+    <t>[{"money":"800"}]</t>
+  </si>
+  <si>
+    <t>胡子</t>
+  </si>
+  <si>
+    <t>相片胡子道具</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_10002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_10002</t>
+  </si>
+  <si>
     <t>[{"money":"100"}]</t>
   </si>
   <si>
-    <t>胡子</t>
-  </si>
-  <si>
-    <t>相片胡子道具</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_10002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_10002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_10002</t>
-  </si>
-  <si>
     <t>鼻子</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>ITEM_ICON_11002</t>
   </si>
   <si>
+    <t>[{"money":"80"}]</t>
+  </si>
+  <si>
     <t>爱心相框</t>
   </si>
   <si>
@@ -308,6 +314,9 @@
   </si>
   <si>
     <t>ITEM_ICON_12001</t>
+  </si>
+  <si>
+    <t>[{"money":"400"}]</t>
   </si>
   <si>
     <t>星星特效</t>
@@ -409,9 +418,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -430,6 +439,29 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -448,6 +480,97 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,88 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -552,49 +593,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,19 +612,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,157 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +829,74 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,235 +930,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,31 +1526,32 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:A16"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.25" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="13.25" style="2" customWidth="1"/>
-    <col min="12" max="14" width="16.125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
+    <col min="6" max="8" width="16.125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="4" customWidth="1"/>
+    <col min="12" max="14" width="16.125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1644,532 +1675,532 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3">
+    <row r="5" s="2" customFormat="1" spans="1:14">
+      <c r="A5" s="5">
         <v>10001</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:14">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>10002</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:14">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>11001</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:14">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>11002</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:14">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>12001</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:14">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>12002</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:14">
+      <c r="A11" s="6">
+        <v>20001</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:14">
+      <c r="A12" s="6">
+        <v>20002</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:14">
+      <c r="A13" s="6">
+        <v>21001</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:14">
+      <c r="A14" s="6">
+        <v>21002</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:14">
+      <c r="A15" s="6">
+        <v>22001</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:14">
+      <c r="A16" s="6">
+        <v>22002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:14">
-      <c r="A11" s="3">
-        <v>20001</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:14">
-      <c r="A12" s="3">
-        <v>20002</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:14">
-      <c r="A13" s="3">
-        <v>21001</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:14">
-      <c r="A14" s="3">
-        <v>21002</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:14">
-      <c r="A15" s="3">
-        <v>22001</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:14">
-      <c r="A16" s="3">
-        <v>22002</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>83</v>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -442,9 +442,137 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,132 +592,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -597,11 +602,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -624,6 +624,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,175 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,22 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,30 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,54 +901,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,97 +983,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1526,7 +1526,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>*dark_config</t>
   </si>
@@ -247,7 +247,7 @@
     <t>ITEM_ICON_10001</t>
   </si>
   <si>
-    <t>[{"money":"800"}]</t>
+    <t>[{"money":"850"}]</t>
   </si>
   <si>
     <t>胡子</t>
@@ -256,24 +256,39 @@
     <t>相片胡子道具</t>
   </si>
   <si>
-    <t>ITEM_NAME_10002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_10002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_10002</t>
-  </si>
-  <si>
     <t>[{"money":"100"}]</t>
   </si>
   <si>
-    <t>鼻子</t>
+    <t>胡子2</t>
   </si>
   <si>
     <t>相片鼻子道具</t>
   </si>
   <si>
+    <t>[{"money":"2550"}]</t>
+  </si>
+  <si>
+    <t>胡子3</t>
+  </si>
+  <si>
+    <t>[{"money":"3400"}]</t>
+  </si>
+  <si>
+    <t>胡子4</t>
+  </si>
+  <si>
+    <t>[{"money":"5950"}]</t>
+  </si>
+  <si>
+    <t>胡子5</t>
+  </si>
+  <si>
+    <t>[{"money":"7650"}]</t>
+  </si>
+  <si>
+    <t>胡子6</t>
+  </si>
+  <si>
     <t>ITEM_NAME_11001</t>
   </si>
   <si>
@@ -283,28 +298,34 @@
     <t>ITEM_ICON_11001</t>
   </si>
   <si>
+    <t>极简</t>
+  </si>
+  <si>
+    <t>相片极简外框</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_11002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_11002</t>
+  </si>
+  <si>
+    <t>ITEM_ICON_11002</t>
+  </si>
+  <si>
+    <t>[{"money":"1700"}]</t>
+  </si>
+  <si>
+    <t>爱心</t>
+  </si>
+  <si>
+    <t>相片爱心相框</t>
+  </si>
+  <si>
     <t>白框</t>
   </si>
   <si>
-    <t>相片白框</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_11002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_11002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_11002</t>
-  </si>
-  <si>
-    <t>[{"money":"80"}]</t>
-  </si>
-  <si>
-    <t>爱心相框</t>
-  </si>
-  <si>
-    <t>相片爱心相框</t>
+    <t>相片白框外框</t>
   </si>
   <si>
     <t>ITEM_NAME_12001</t>
@@ -334,82 +355,19 @@
     <t>ITEM_ICON_12002</t>
   </si>
   <si>
+    <t>[{"money":"5100"}]</t>
+  </si>
+  <si>
     <t>骷髅特效</t>
   </si>
   <si>
     <t>相片骷髅特效</t>
   </si>
   <si>
-    <t>ITEM_NAME_20001</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_20001</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_20001</t>
-  </si>
-  <si>
-    <t>马里奥</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_20002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_20002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_20002</t>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_21001</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_21001</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_21001</t>
-  </si>
-  <si>
-    <t>寒冰脚印</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_21002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_21002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_21002</t>
-  </si>
-  <si>
-    <t>火焰脚印</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_22001</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_22001</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_22001</t>
-  </si>
-  <si>
-    <t>寒冰护罩</t>
-  </si>
-  <si>
-    <t>ITEM_NAME_22002</t>
-  </si>
-  <si>
-    <t>ITEM_INFO_22002</t>
-  </si>
-  <si>
-    <t>ITEM_ICON_22002</t>
-  </si>
-  <si>
-    <t>火焰护罩</t>
+    <t>鞭炮特效</t>
+  </si>
+  <si>
+    <t>相片鞭炮特效</t>
   </si>
 </sst>
 </file>
@@ -449,7 +407,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,82 +506,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,18 +520,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,11 +543,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,7 +561,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,7 +576,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,181 +630,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +819,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,7 +867,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,10 +890,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,137 +902,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,16 +1042,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,32 +1472,32 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.25" style="4" customWidth="1"/>
-    <col min="3" max="4" width="16.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
-    <col min="6" max="8" width="16.125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="13.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="4" customWidth="1"/>
-    <col min="12" max="14" width="16.125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="13.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="3" customWidth="1"/>
+    <col min="12" max="14" width="16.125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1676,531 +1622,531 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:14">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>10001</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:14">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>10002</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:14">
-      <c r="A7" s="5">
-        <v>11001</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>45</v>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:14">
-      <c r="A8" s="5">
-        <v>11002</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>51</v>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:14">
-      <c r="A9" s="5">
-        <v>12001</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="A9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>57</v>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:14">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:14">
+      <c r="A11" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:14">
+      <c r="A12" s="4">
+        <v>11002</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:14">
+      <c r="A13" s="4">
+        <v>11003</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:14">
+      <c r="A14" s="4">
+        <v>12001</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:14">
+      <c r="A15" s="4">
         <v>12002</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>62</v>
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:14">
-      <c r="A11" s="6">
-        <v>20001</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="16" s="2" customFormat="1" spans="1:14">
+      <c r="A16" s="4">
+        <v>12003</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:14">
-      <c r="A12" s="6">
-        <v>20002</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:14">
-      <c r="A13" s="6">
-        <v>21001</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="N16" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:14">
-      <c r="A14" s="6">
-        <v>21002</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:14">
-      <c r="A15" s="6">
-        <v>22001</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:14">
-      <c r="A16" s="6">
-        <v>22002</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -407,7 +407,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,55 +527,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,59 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,13 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -561,7 +561,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,175 +576,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,6 +806,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -815,11 +830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,26 +860,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,10 +896,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,137 +908,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,10 +1048,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,32 +1484,32 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="13.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
-    <col min="6" max="8" width="16.125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="13.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="16.125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="4" customWidth="1"/>
+    <col min="6" max="8" width="16.125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="4" customWidth="1"/>
+    <col min="12" max="14" width="16.125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1622,530 +1634,530 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:14">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>10001</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:14">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>10002</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:14">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>10003</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:14">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>10004</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:14">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>10005</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:14">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>10006</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:14">
-      <c r="A11" s="4">
+    <row r="11" s="3" customFormat="1" spans="1:14">
+      <c r="A11" s="6">
         <v>11001</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:14">
-      <c r="A12" s="4">
+    <row r="12" s="3" customFormat="1" spans="1:14">
+      <c r="A12" s="6">
         <v>11002</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:14">
-      <c r="A13" s="4">
+    <row r="13" s="3" customFormat="1" spans="1:14">
+      <c r="A13" s="6">
         <v>11003</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>12001</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:14">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>12002</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:14">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>12003</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="5" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Resource/excel/道具-公共配置.xlsx
+++ b/Resource/excel/道具-公共配置.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>*dark_config</t>
   </si>
@@ -256,6 +256,12 @@
     <t>相片胡子道具</t>
   </si>
   <si>
+    <t>ITEM_NAME_10002</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10002</t>
+  </si>
+  <si>
     <t>[{"money":"100"}]</t>
   </si>
   <si>
@@ -265,24 +271,48 @@
     <t>相片鼻子道具</t>
   </si>
   <si>
+    <t>ITEM_NAME_10003</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10003</t>
+  </si>
+  <si>
     <t>[{"money":"2550"}]</t>
   </si>
   <si>
     <t>胡子3</t>
   </si>
   <si>
+    <t>ITEM_NAME_10004</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10004</t>
+  </si>
+  <si>
     <t>[{"money":"3400"}]</t>
   </si>
   <si>
     <t>胡子4</t>
   </si>
   <si>
+    <t>ITEM_NAME_10005</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10005</t>
+  </si>
+  <si>
     <t>[{"money":"5950"}]</t>
   </si>
   <si>
     <t>胡子5</t>
   </si>
   <si>
+    <t>ITEM_NAME_10006</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_10006</t>
+  </si>
+  <si>
     <t>[{"money":"7650"}]</t>
   </si>
   <si>
@@ -322,6 +352,12 @@
     <t>相片爱心相框</t>
   </si>
   <si>
+    <t>ITEM_NAME_11003</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_11003</t>
+  </si>
+  <si>
     <t>白框</t>
   </si>
   <si>
@@ -362,6 +398,12 @@
   </si>
   <si>
     <t>相片骷髅特效</t>
+  </si>
+  <si>
+    <t>ITEM_NAME_12003</t>
+  </si>
+  <si>
+    <t>ITEM_INFO_12003</t>
   </si>
   <si>
     <t>鞭炮特效</t>
@@ -400,65 +442,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,6 +471,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -480,22 +517,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -510,30 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -544,12 +557,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -582,187 +624,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,30 +834,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -830,32 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +881,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -893,148 +935,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,7 +1526,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1685,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1709,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:14">
@@ -1729,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1753,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>34</v>
@@ -1773,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1797,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:14">
@@ -1817,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -1841,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>34</v>
@@ -1861,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -1885,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:14">
@@ -1905,16 +1947,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -1929,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:14">
@@ -1949,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -1973,16 +2015,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:14">
@@ -1993,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
@@ -2017,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L13" s="6">
         <v>1</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:14">
@@ -2037,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -2061,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:14">
@@ -2081,16 +2123,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -2105,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L15" s="5">
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:14">
@@ -2125,16 +2167,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E16" s="5">
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -2149,16 +2191,16 @@
         <v>0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
